--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/4_fold/100.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/4_fold/100.xlsx
@@ -479,13 +479,13 @@
         <v>12.83456853187129</v>
       </c>
       <c r="E2" t="n">
-        <v>-8.398426956143847</v>
+        <v>-8.575749105832184</v>
       </c>
       <c r="F2" t="n">
-        <v>-2.221138075543603</v>
+        <v>-2.135985737861017</v>
       </c>
       <c r="G2" t="n">
-        <v>-5.964999903860748</v>
+        <v>-5.830895445852947</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>12.29397857023155</v>
       </c>
       <c r="E3" t="n">
-        <v>-9.084607640381552</v>
+        <v>-9.286674242440752</v>
       </c>
       <c r="F3" t="n">
-        <v>-2.131508170289147</v>
+        <v>-2.059421950842603</v>
       </c>
       <c r="G3" t="n">
-        <v>-5.880279612171939</v>
+        <v>-5.761925194482735</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>11.71694422148042</v>
       </c>
       <c r="E4" t="n">
-        <v>-9.655471321189333</v>
+        <v>-9.869268626594721</v>
       </c>
       <c r="F4" t="n">
-        <v>-2.227081981033747</v>
+        <v>-2.148999486885693</v>
       </c>
       <c r="G4" t="n">
-        <v>-5.733331605076405</v>
+        <v>-5.61808006316069</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>11.18951597226434</v>
       </c>
       <c r="E5" t="n">
-        <v>-10.30469243450485</v>
+        <v>-10.53162131966048</v>
       </c>
       <c r="F5" t="n">
-        <v>-2.130630985998751</v>
+        <v>-2.041485495949438</v>
       </c>
       <c r="G5" t="n">
-        <v>-5.601884884545475</v>
+        <v>-5.510264949259076</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>10.72238588288723</v>
       </c>
       <c r="E6" t="n">
-        <v>-10.97546347829784</v>
+        <v>-11.22322221727466</v>
       </c>
       <c r="F6" t="n">
-        <v>-2.254104494099069</v>
+        <v>-2.175733969288497</v>
       </c>
       <c r="G6" t="n">
-        <v>-5.145919253476682</v>
+        <v>-5.052060534404347</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>10.36585296339574</v>
       </c>
       <c r="E7" t="n">
-        <v>-11.48813187297415</v>
+        <v>-11.71799343396633</v>
       </c>
       <c r="F7" t="n">
-        <v>-2.036811543834942</v>
+        <v>-1.948006453659514</v>
       </c>
       <c r="G7" t="n">
-        <v>-5.03637595559996</v>
+        <v>-4.992660756411436</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>10.14652935179499</v>
       </c>
       <c r="E8" t="n">
-        <v>-12.10691338218265</v>
+        <v>-12.32589523951336</v>
       </c>
       <c r="F8" t="n">
-        <v>-1.892337981976494</v>
+        <v>-1.797733001642182</v>
       </c>
       <c r="G8" t="n">
-        <v>-4.609370498417063</v>
+        <v>-4.578682140556058</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>10.07016748387968</v>
       </c>
       <c r="E9" t="n">
-        <v>-12.71581020274564</v>
+        <v>-12.93652024405146</v>
       </c>
       <c r="F9" t="n">
-        <v>-1.81319501129826</v>
+        <v>-1.718341277209955</v>
       </c>
       <c r="G9" t="n">
-        <v>-4.032746204358922</v>
+        <v>-3.988245466999896</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>10.13713206440313</v>
       </c>
       <c r="E10" t="n">
-        <v>-13.34197577075688</v>
+        <v>-13.54532541849457</v>
       </c>
       <c r="F10" t="n">
-        <v>-1.719283923014559</v>
+        <v>-1.658443991709058</v>
       </c>
       <c r="G10" t="n">
-        <v>-3.669159862141348</v>
+        <v>-3.621634802825882</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>10.35204522720775</v>
       </c>
       <c r="E11" t="n">
-        <v>-14.19987509906666</v>
+        <v>-14.41324035847827</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.551178754526797</v>
+        <v>-1.480624334512735</v>
       </c>
       <c r="G11" t="n">
-        <v>-3.154501437433096</v>
+        <v>-3.134339291056838</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>10.68890089269997</v>
       </c>
       <c r="E12" t="n">
-        <v>-14.85200270361304</v>
+        <v>-15.0697146075681</v>
       </c>
       <c r="F12" t="n">
-        <v>-1.413905959231299</v>
+        <v>-1.347816014486266</v>
       </c>
       <c r="G12" t="n">
-        <v>-2.727260318799049</v>
+        <v>-2.72013810605315</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>11.10699062946374</v>
       </c>
       <c r="E13" t="n">
-        <v>-15.59982194962959</v>
+        <v>-15.79110049414721</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.256379371439651</v>
+        <v>-1.181622322213395</v>
       </c>
       <c r="G13" t="n">
-        <v>-2.126402172180873</v>
+        <v>-2.110547393439543</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>11.58476728280931</v>
       </c>
       <c r="E14" t="n">
-        <v>-16.24891213991668</v>
+        <v>-16.45525992500513</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.03610137612761</v>
+        <v>-0.9675762630540155</v>
       </c>
       <c r="G14" t="n">
-        <v>-1.422664709832414</v>
+        <v>-1.400577994938422</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>12.0768904183532</v>
       </c>
       <c r="E15" t="n">
-        <v>-16.89221553234773</v>
+        <v>-17.08060067793733</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.8174206417622591</v>
+        <v>-0.7397963782136653</v>
       </c>
       <c r="G15" t="n">
-        <v>-1.252464772889975</v>
+        <v>-1.224159214146163</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>12.52620380975322</v>
       </c>
       <c r="E16" t="n">
-        <v>-17.75626824299313</v>
+        <v>-17.91935905949251</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.6339712943439935</v>
+        <v>-0.5402434983000766</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.7236273842041336</v>
+        <v>-0.7151697565683786</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>12.90556409945786</v>
       </c>
       <c r="E17" t="n">
-        <v>-18.61192878751698</v>
+        <v>-18.80752779197237</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.3205677489187548</v>
+        <v>-0.2463343918061681</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.5086648638458333</v>
+        <v>-0.4999192055475603</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>13.18476196184147</v>
       </c>
       <c r="E18" t="n">
-        <v>-19.36516824691001</v>
+        <v>-19.5502279475778</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.1787912014457033</v>
+        <v>-0.1458640597987622</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.0973963546786923</v>
+        <v>-0.0861500665376496</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>13.32977528317616</v>
       </c>
       <c r="E19" t="n">
-        <v>-20.03544178319501</v>
+        <v>-20.23024215717706</v>
       </c>
       <c r="F19" t="n">
-        <v>0.05389829696029414</v>
+        <v>0.09207545204676736</v>
       </c>
       <c r="G19" t="n">
-        <v>0.04674989960871171</v>
+        <v>0.05522061954730847</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>13.33773120445569</v>
       </c>
       <c r="E20" t="n">
-        <v>-20.5480709009628</v>
+        <v>-20.68711115714193</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1561099052456495</v>
+        <v>0.1780395125055407</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2915235935376223</v>
+        <v>0.3108085556234848</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>13.21491337308313</v>
       </c>
       <c r="E21" t="n">
-        <v>-21.19075895516029</v>
+        <v>-21.3439127138028</v>
       </c>
       <c r="F21" t="n">
-        <v>0.4056099205004232</v>
+        <v>0.417667931417653</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4370838165319327</v>
+        <v>0.4603488386816799</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>12.96424320224009</v>
       </c>
       <c r="E22" t="n">
-        <v>-21.61185978376156</v>
+        <v>-21.76992315596972</v>
       </c>
       <c r="F22" t="n">
-        <v>0.5248284301771808</v>
+        <v>0.5197355243717494</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5990617872897677</v>
+        <v>0.6658718086910957</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>12.60275288911338</v>
       </c>
       <c r="E23" t="n">
-        <v>-21.98882645948338</v>
+        <v>-22.14222897187989</v>
       </c>
       <c r="F23" t="n">
-        <v>0.6645494861040814</v>
+        <v>0.6665526084388655</v>
       </c>
       <c r="G23" t="n">
-        <v>0.6259926542351981</v>
+        <v>0.7221032493963092</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>12.16512431831536</v>
       </c>
       <c r="E24" t="n">
-        <v>-22.29124556282441</v>
+        <v>-22.42956574234725</v>
       </c>
       <c r="F24" t="n">
-        <v>0.8497270174974549</v>
+        <v>0.8564171842495769</v>
       </c>
       <c r="G24" t="n">
-        <v>0.7596126970378544</v>
+        <v>0.8973829998413378</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>11.67617060976314</v>
       </c>
       <c r="E25" t="n">
-        <v>-22.45034322695707</v>
+        <v>-22.55246318912253</v>
       </c>
       <c r="F25" t="n">
-        <v>0.8631204433045407</v>
+        <v>0.8611696901811235</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8621908898027781</v>
+        <v>1.011469326804139</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>11.15475127616614</v>
       </c>
       <c r="E26" t="n">
-        <v>-22.67363245192271</v>
+        <v>-22.77073806209979</v>
       </c>
       <c r="F26" t="n">
-        <v>1.026604028889174</v>
+        <v>1.021628953809318</v>
       </c>
       <c r="G26" t="n">
-        <v>0.6483019382774994</v>
+        <v>0.8400910826059446</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>10.64319164870355</v>
       </c>
       <c r="E27" t="n">
-        <v>-22.5478416062194</v>
+        <v>-22.64079695639566</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9914511957591396</v>
+        <v>0.9765390628224137</v>
       </c>
       <c r="G27" t="n">
-        <v>0.5344512727658495</v>
+        <v>0.7296444158331434</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>10.16669757170263</v>
       </c>
       <c r="E28" t="n">
-        <v>-22.65183376769123</v>
+        <v>-22.74835022424044</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9868034282503269</v>
+        <v>0.9775340778383848</v>
       </c>
       <c r="G28" t="n">
-        <v>0.09579366605381756</v>
+        <v>0.2879493948618311</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>9.735632735076258</v>
       </c>
       <c r="E29" t="n">
-        <v>-22.38869157287538</v>
+        <v>-22.50073550059487</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9490190422491054</v>
+        <v>0.9500533341736018</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.1401558157597697</v>
+        <v>0.06882352219986186</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>9.383309434348885</v>
       </c>
       <c r="E30" t="n">
-        <v>-22.22751223259089</v>
+        <v>-22.35914224536161</v>
       </c>
       <c r="F30" t="n">
-        <v>0.880454652266986</v>
+        <v>0.8870924498077412</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.6044350591330595</v>
+        <v>-0.4071209630054059</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>9.128752387813014</v>
       </c>
       <c r="E31" t="n">
-        <v>-21.77506843098652</v>
+        <v>-21.87785610059691</v>
       </c>
       <c r="F31" t="n">
-        <v>0.8769851920139285</v>
+        <v>0.8723897937164827</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.8899781841111051</v>
+        <v>-0.7116348348011126</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>8.968382607412256</v>
       </c>
       <c r="E32" t="n">
-        <v>-21.30832783467899</v>
+        <v>-21.41009430466772</v>
       </c>
       <c r="F32" t="n">
-        <v>0.8159750607714851</v>
+        <v>0.8332438082197218</v>
       </c>
       <c r="G32" t="n">
-        <v>-1.307125137254181</v>
+        <v>-1.140499398987533</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>8.912170942641445</v>
       </c>
       <c r="E33" t="n">
-        <v>-21.08990894637047</v>
+        <v>-21.21348719289352</v>
       </c>
       <c r="F33" t="n">
-        <v>0.7230851721094387</v>
+        <v>0.7301157387354456</v>
       </c>
       <c r="G33" t="n">
-        <v>-1.715657355127401</v>
+        <v>-1.556415675663487</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>8.963168384292626</v>
       </c>
       <c r="E34" t="n">
-        <v>-20.60188026564229</v>
+        <v>-20.71251022465487</v>
       </c>
       <c r="F34" t="n">
-        <v>0.6712658374618868</v>
+        <v>0.6932216293274615</v>
       </c>
       <c r="G34" t="n">
-        <v>-2.085056679806702</v>
+        <v>-1.958022065333434</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>9.10152851702623</v>
       </c>
       <c r="E35" t="n">
-        <v>-20.21472777830961</v>
+        <v>-20.32950799732302</v>
       </c>
       <c r="F35" t="n">
-        <v>0.6152962428135079</v>
+        <v>0.6563144276166357</v>
       </c>
       <c r="G35" t="n">
-        <v>-2.284334621360615</v>
+        <v>-2.158360483417527</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>9.307610813966908</v>
       </c>
       <c r="E36" t="n">
-        <v>-19.65264903270863</v>
+        <v>-19.78406956863387</v>
       </c>
       <c r="F36" t="n">
-        <v>0.6320282058452339</v>
+        <v>0.6729940214369947</v>
       </c>
       <c r="G36" t="n">
-        <v>-2.605475717765314</v>
+        <v>-2.485458577615211</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>9.573106691482108</v>
       </c>
       <c r="E37" t="n">
-        <v>-19.28356392329752</v>
+        <v>-19.39986284944058</v>
       </c>
       <c r="F37" t="n">
-        <v>0.5512748819174674</v>
+        <v>0.592685835805847</v>
       </c>
       <c r="G37" t="n">
-        <v>-2.838152123868469</v>
+        <v>-2.712845693370309</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>9.873190352569567</v>
       </c>
       <c r="E38" t="n">
-        <v>-18.58560016650227</v>
+        <v>-18.67864716279842</v>
       </c>
       <c r="F38" t="n">
-        <v>0.7235695873145825</v>
+        <v>0.7700341700998683</v>
       </c>
       <c r="G38" t="n">
-        <v>-2.902265130884402</v>
+        <v>-2.798102769475629</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>10.17798300653221</v>
       </c>
       <c r="E39" t="n">
-        <v>-18.11499734085642</v>
+        <v>-18.24339355482523</v>
       </c>
       <c r="F39" t="n">
-        <v>0.8124401390042191</v>
+        <v>0.8725338090477417</v>
       </c>
       <c r="G39" t="n">
-        <v>-2.836253739956419</v>
+        <v>-2.714168015957323</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>10.48511161392795</v>
       </c>
       <c r="E40" t="n">
-        <v>-17.52305505247346</v>
+        <v>-17.63347553464058</v>
       </c>
       <c r="F40" t="n">
-        <v>0.7010115495182885</v>
+        <v>0.7644044798779261</v>
       </c>
       <c r="G40" t="n">
-        <v>-2.89185675012523</v>
+        <v>-2.769653195400558</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>10.78156412932741</v>
       </c>
       <c r="E41" t="n">
-        <v>-16.96705113539104</v>
+        <v>-17.09409884216715</v>
       </c>
       <c r="F41" t="n">
-        <v>0.8542700465835339</v>
+        <v>0.9296424340433509</v>
       </c>
       <c r="G41" t="n">
-        <v>-3.044748662710906</v>
+        <v>-2.952290820042637</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>11.04545716485353</v>
       </c>
       <c r="E42" t="n">
-        <v>-16.32036992882682</v>
+        <v>-16.44388271383567</v>
       </c>
       <c r="F42" t="n">
-        <v>0.8332176236140384</v>
+        <v>0.9088649494335316</v>
       </c>
       <c r="G42" t="n">
-        <v>-3.18805700961644</v>
+        <v>-3.105287471051048</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>11.28400493074038</v>
       </c>
       <c r="E43" t="n">
-        <v>-15.76093582839987</v>
+        <v>-15.87422352488932</v>
       </c>
       <c r="F43" t="n">
-        <v>0.8580929990133179</v>
+        <v>0.9387415845183504</v>
       </c>
       <c r="G43" t="n">
-        <v>-3.196121868166943</v>
+        <v>-3.13291223004709</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>11.4993523346973</v>
       </c>
       <c r="E44" t="n">
-        <v>-15.17666562948216</v>
+        <v>-15.26856050312823</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9322085254003292</v>
+        <v>1.027245551728419</v>
       </c>
       <c r="G44" t="n">
-        <v>-3.34863410397021</v>
+        <v>-3.305141473929996</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>11.68046827035315</v>
       </c>
       <c r="E45" t="n">
-        <v>-14.64699033341445</v>
+        <v>-14.78445951325257</v>
       </c>
       <c r="F45" t="n">
-        <v>0.8994384913874888</v>
+        <v>0.999031639104499</v>
       </c>
       <c r="G45" t="n">
-        <v>-3.44261065376812</v>
+        <v>-3.407326897609668</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>11.83551475789582</v>
       </c>
       <c r="E46" t="n">
-        <v>-14.17324535508659</v>
+        <v>-14.32137166943788</v>
       </c>
       <c r="F46" t="n">
-        <v>0.7113675610660939</v>
+        <v>0.8101228014012336</v>
       </c>
       <c r="G46" t="n">
-        <v>-3.467027798567939</v>
+        <v>-3.442257161591393</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>11.97458102837686</v>
       </c>
       <c r="E47" t="n">
-        <v>-13.39733002717169</v>
+        <v>-13.55506609180881</v>
       </c>
       <c r="F47" t="n">
-        <v>0.7623228037260917</v>
+        <v>0.8626098434937134</v>
       </c>
       <c r="G47" t="n">
-        <v>-3.347953304222441</v>
+        <v>-3.313180147874816</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>12.09321123821675</v>
       </c>
       <c r="E48" t="n">
-        <v>-12.82572008510193</v>
+        <v>-12.98367871888736</v>
       </c>
       <c r="F48" t="n">
-        <v>0.6852353245940086</v>
+        <v>0.788743070860695</v>
       </c>
       <c r="G48" t="n">
-        <v>-3.37502818649913</v>
+        <v>-3.323719451662406</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>12.18988451281574</v>
       </c>
       <c r="E49" t="n">
-        <v>-12.41437302211774</v>
+        <v>-12.55807413810853</v>
       </c>
       <c r="F49" t="n">
-        <v>0.6475425847126792</v>
+        <v>0.7564836366586819</v>
       </c>
       <c r="G49" t="n">
-        <v>-3.504812184569161</v>
+        <v>-3.45390931112053</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>12.27763543273413</v>
       </c>
       <c r="E50" t="n">
-        <v>-11.86376313380611</v>
+        <v>-12.01182398664319</v>
       </c>
       <c r="F50" t="n">
-        <v>0.600855432779084</v>
+        <v>0.6980134121675332</v>
       </c>
       <c r="G50" t="n">
-        <v>-3.645488978603507</v>
+        <v>-3.612980790647501</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>12.35381375701076</v>
       </c>
       <c r="E51" t="n">
-        <v>-11.39380183099951</v>
+        <v>-11.52340253682976</v>
       </c>
       <c r="F51" t="n">
-        <v>0.6045736467861343</v>
+        <v>0.7097703001194032</v>
       </c>
       <c r="G51" t="n">
-        <v>-3.818032437754615</v>
+        <v>-3.78939957143976</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>12.40657162105256</v>
       </c>
       <c r="E52" t="n">
-        <v>-10.92679938863514</v>
+        <v>-11.06284150746352</v>
       </c>
       <c r="F52" t="n">
-        <v>0.5514974510657769</v>
+        <v>0.6472152771416361</v>
       </c>
       <c r="G52" t="n">
-        <v>-3.880613645338066</v>
+        <v>-3.835824877316521</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>12.44845372056225</v>
       </c>
       <c r="E53" t="n">
-        <v>-10.32899174857909</v>
+        <v>-10.46187862242261</v>
       </c>
       <c r="F53" t="n">
-        <v>0.5290179670865331</v>
+        <v>0.6264247002289751</v>
       </c>
       <c r="G53" t="n">
-        <v>-4.034644588270972</v>
+        <v>-3.991701834950111</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>12.47711889656854</v>
       </c>
       <c r="E54" t="n">
-        <v>-9.896081662814575</v>
+        <v>-10.01975155545752</v>
       </c>
       <c r="F54" t="n">
-        <v>0.512966803802577</v>
+        <v>0.6273018845193707</v>
       </c>
       <c r="G54" t="n">
-        <v>-4.109309991377336</v>
+        <v>-4.051101612943023</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>12.47536501303813</v>
       </c>
       <c r="E55" t="n">
-        <v>-9.412242518995747</v>
+        <v>-9.52498033876585</v>
       </c>
       <c r="F55" t="n">
-        <v>0.4244235596839836</v>
+        <v>0.5398714861423241</v>
       </c>
       <c r="G55" t="n">
-        <v>-4.230845838657079</v>
+        <v>-4.161574464321507</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>12.45266912144929</v>
       </c>
       <c r="E56" t="n">
-        <v>-9.066252231797453</v>
+        <v>-9.212820562110576</v>
       </c>
       <c r="F56" t="n">
-        <v>0.3851466511588054</v>
+        <v>0.517745494339807</v>
       </c>
       <c r="G56" t="n">
-        <v>-4.492299126406349</v>
+        <v>-4.413601294024734</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>12.41135751676804</v>
       </c>
       <c r="E57" t="n">
-        <v>-8.549276469486214</v>
+        <v>-8.69533419998851</v>
       </c>
       <c r="F57" t="n">
-        <v>0.3533323552534111</v>
+        <v>0.4896232278357794</v>
       </c>
       <c r="G57" t="n">
-        <v>-4.478133254731602</v>
+        <v>-4.388110580391893</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>12.3390611285584</v>
       </c>
       <c r="E58" t="n">
-        <v>-8.429521175392946</v>
+        <v>-8.605324617951643</v>
       </c>
       <c r="F58" t="n">
-        <v>0.3053228807328016</v>
+        <v>0.4563949632234787</v>
       </c>
       <c r="G58" t="n">
-        <v>-4.545794275817642</v>
+        <v>-4.448976696303077</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>12.24213097600998</v>
       </c>
       <c r="E59" t="n">
-        <v>-7.892134512951458</v>
+        <v>-8.028700323893503</v>
       </c>
       <c r="F59" t="n">
-        <v>0.3154563231322975</v>
+        <v>0.4396368155860693</v>
       </c>
       <c r="G59" t="n">
-        <v>-4.780421435044214</v>
+        <v>-4.689351376477168</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>12.13312701963422</v>
       </c>
       <c r="E60" t="n">
-        <v>-7.795146733499951</v>
+        <v>-7.938193234348651</v>
       </c>
       <c r="F60" t="n">
-        <v>0.420535145739991</v>
+        <v>0.5661477379456683</v>
       </c>
       <c r="G60" t="n">
-        <v>-4.838839290323997</v>
+        <v>-4.75012584626846</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>12.01105734995765</v>
       </c>
       <c r="E61" t="n">
-        <v>-7.464055486935541</v>
+        <v>-7.594559561661867</v>
       </c>
       <c r="F61" t="n">
-        <v>0.3734683170239858</v>
+        <v>0.5199711858229005</v>
       </c>
       <c r="G61" t="n">
-        <v>-4.954195570662445</v>
+        <v>-4.854680976762485</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>11.87875500980435</v>
       </c>
       <c r="E62" t="n">
-        <v>-7.177530439244366</v>
+        <v>-7.313022681353389</v>
       </c>
       <c r="F62" t="n">
-        <v>0.3449794660403898</v>
+        <v>0.4930795957859951</v>
       </c>
       <c r="G62" t="n">
-        <v>-5.145330099848803</v>
+        <v>-5.043969491248161</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>11.76045381652925</v>
       </c>
       <c r="E63" t="n">
-        <v>-6.994971368419337</v>
+        <v>-7.131825210023901</v>
       </c>
       <c r="F63" t="n">
-        <v>0.3114762630684128</v>
+        <v>0.456905563034306</v>
       </c>
       <c r="G63" t="n">
-        <v>-5.091088689175533</v>
+        <v>-4.99322372543363</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>11.66440719148935</v>
       </c>
       <c r="E64" t="n">
-        <v>-6.774274419416361</v>
+        <v>-6.915343982535959</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1104963221450759</v>
+        <v>0.2517099005959333</v>
       </c>
       <c r="G64" t="n">
-        <v>-5.074788772137584</v>
+        <v>-4.99694193944068</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>11.58896444919401</v>
       </c>
       <c r="E65" t="n">
-        <v>-6.71487464142345</v>
+        <v>-6.865475401011825</v>
       </c>
       <c r="F65" t="n">
-        <v>0.0260509688159428</v>
+        <v>0.1667670397588146</v>
       </c>
       <c r="G65" t="n">
-        <v>-5.136296410888013</v>
+        <v>-5.048159028157513</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>11.56067579179019</v>
       </c>
       <c r="E66" t="n">
-        <v>-6.454141430330475</v>
+        <v>-6.575978400575578</v>
       </c>
       <c r="F66" t="n">
-        <v>0.06481727753029369</v>
+        <v>0.2055595330788489</v>
       </c>
       <c r="G66" t="n">
-        <v>-5.103958422868949</v>
+        <v>-5.018806085186363</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>11.58913880462438</v>
       </c>
       <c r="E67" t="n">
-        <v>-6.331898598697279</v>
+        <v>-6.464170134307238</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.07038693391621142</v>
+        <v>0.0837618397422713</v>
       </c>
       <c r="G67" t="n">
-        <v>-5.052361657369707</v>
+        <v>-4.987279819943486</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>11.66277260947678</v>
       </c>
       <c r="E68" t="n">
-        <v>-6.117145555184447</v>
+        <v>-6.253803012246383</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.1056445054689797</v>
+        <v>0.05015389834756049</v>
       </c>
       <c r="G68" t="n">
-        <v>-5.031335419005895</v>
+        <v>-4.981021699185142</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>11.79551165258969</v>
       </c>
       <c r="E69" t="n">
-        <v>-6.140174915883042</v>
+        <v>-6.270456421461058</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.1807419545691205</v>
+        <v>-0.03633385422488192</v>
       </c>
       <c r="G69" t="n">
-        <v>-4.926151857975468</v>
+        <v>-4.861096205154931</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>11.98803255172285</v>
       </c>
       <c r="E70" t="n">
-        <v>-6.2795686642389</v>
+        <v>-6.399952388868571</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.2217601393722482</v>
+        <v>-0.06779465795354966</v>
       </c>
       <c r="G70" t="n">
-        <v>-4.854982099727845</v>
+        <v>-4.799719489432919</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>12.21855713076833</v>
       </c>
       <c r="E71" t="n">
-        <v>-6.300189041214619</v>
+        <v>-6.422052196065405</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.2182121253021405</v>
+        <v>-0.07231150243394516</v>
       </c>
       <c r="G71" t="n">
-        <v>-4.792269969115977</v>
+        <v>-4.747193170431914</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>12.47920707623399</v>
       </c>
       <c r="E72" t="n">
-        <v>-6.402309003380082</v>
+        <v>-6.540537536783026</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.3192061494232153</v>
+        <v>-0.1876415981667101</v>
       </c>
       <c r="G72" t="n">
-        <v>-4.669726014517421</v>
+        <v>-4.631954720819041</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>12.76621424879156</v>
       </c>
       <c r="E73" t="n">
-        <v>-6.504206396397236</v>
+        <v>-6.632720441091619</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.3209081487926397</v>
+        <v>-0.1820642771561348</v>
       </c>
       <c r="G73" t="n">
-        <v>-4.4263924739011</v>
+        <v>-4.382637997804052</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>13.05759671935537</v>
       </c>
       <c r="E74" t="n">
-        <v>-6.794960257906288</v>
+        <v>-6.913170660264233</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.3257915777526036</v>
+        <v>-0.1969502254871773</v>
       </c>
       <c r="G74" t="n">
-        <v>-4.130598075797983</v>
+        <v>-4.095667811816258</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>13.33233655882317</v>
       </c>
       <c r="E75" t="n">
-        <v>-7.034850522875235</v>
+        <v>-7.149840218734115</v>
       </c>
       <c r="F75" t="n">
-        <v>-0.4597912973376699</v>
+        <v>-0.3346026975650852</v>
       </c>
       <c r="G75" t="n">
-        <v>-3.872967740478498</v>
+        <v>-3.826018742488068</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>13.59275986248068</v>
       </c>
       <c r="E76" t="n">
-        <v>-7.311634897252166</v>
+        <v>-7.420143903204392</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.5557709694703636</v>
+        <v>-0.4348897373327069</v>
       </c>
       <c r="G76" t="n">
-        <v>-3.516045380407362</v>
+        <v>-3.467695506012867</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>13.82544950989227</v>
       </c>
       <c r="E77" t="n">
-        <v>-7.82290241552441</v>
+        <v>-7.917114626773471</v>
       </c>
       <c r="F77" t="n">
-        <v>-0.4349028296355486</v>
+        <v>-0.3184206112527118</v>
       </c>
       <c r="G77" t="n">
-        <v>-3.397546947386899</v>
+        <v>-3.341472614315786</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>14.00848532490999</v>
       </c>
       <c r="E78" t="n">
-        <v>-8.21732113093425</v>
+        <v>-8.318406801175216</v>
       </c>
       <c r="F78" t="n">
-        <v>-0.5225034279495377</v>
+        <v>-0.4099619927220605</v>
       </c>
       <c r="G78" t="n">
-        <v>-3.406475897924956</v>
+        <v>-3.360796853310174</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>14.15072880889946</v>
       </c>
       <c r="E79" t="n">
-        <v>-8.68842146408808</v>
+        <v>-8.777710969468652</v>
       </c>
       <c r="F79" t="n">
-        <v>-0.5626444284622698</v>
+        <v>-0.4563087447817707</v>
       </c>
       <c r="G79" t="n">
-        <v>-3.141631703739679</v>
+        <v>-3.079259973001697</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>14.2490155772078</v>
       </c>
       <c r="E80" t="n">
-        <v>-9.26708815738953</v>
+        <v>-9.349517296081038</v>
       </c>
       <c r="F80" t="n">
-        <v>-0.6336963559843173</v>
+        <v>-0.51197721646479</v>
       </c>
       <c r="G80" t="n">
-        <v>-2.772101456031961</v>
+        <v>-2.705343803842</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>14.28477442364462</v>
       </c>
       <c r="E81" t="n">
-        <v>-9.845139512457418</v>
+        <v>-9.908728827359683</v>
       </c>
       <c r="F81" t="n">
-        <v>-0.6385274157329142</v>
+        <v>-0.5584941684614427</v>
       </c>
       <c r="G81" t="n">
-        <v>-2.604506887355026</v>
+        <v>-2.56206164154215</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>14.26863181896188</v>
       </c>
       <c r="E82" t="n">
-        <v>-10.74001150399224</v>
+        <v>-10.82084338173705</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.640779291821691</v>
+        <v>-0.5324404858064078</v>
       </c>
       <c r="G82" t="n">
-        <v>-2.217524599959287</v>
+        <v>-2.162091789727418</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>14.20513341613247</v>
       </c>
       <c r="E83" t="n">
-        <v>-11.55771746257792</v>
+        <v>-11.61021759697324</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.7022214690579115</v>
+        <v>-0.6107979183141383</v>
       </c>
       <c r="G83" t="n">
-        <v>-1.989941099661562</v>
+        <v>-1.930331844823184</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>14.08456120469566</v>
       </c>
       <c r="E84" t="n">
-        <v>-12.51151790920335</v>
+        <v>-12.55316452454288</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.6083234730770521</v>
+        <v>-0.511165493688603</v>
       </c>
       <c r="G84" t="n">
-        <v>-1.755065186680997</v>
+        <v>-1.71542169367625</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>13.9109566716456</v>
       </c>
       <c r="E85" t="n">
-        <v>-13.68668301227668</v>
+        <v>-13.70248542180665</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.7052981602257171</v>
+        <v>-0.6043303207103257</v>
       </c>
       <c r="G85" t="n">
-        <v>-1.598101567911543</v>
+        <v>-1.562333396547947</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>13.6961116770449</v>
       </c>
       <c r="E86" t="n">
-        <v>-14.80183299912354</v>
+        <v>-14.8357682480893</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.760456032097909</v>
+        <v>-0.6710748805974451</v>
       </c>
       <c r="G86" t="n">
-        <v>-1.343993062056482</v>
+        <v>-1.280783423936628</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>13.4365865821495</v>
       </c>
       <c r="E87" t="n">
-        <v>-15.93620248654205</v>
+        <v>-15.95855104749288</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.7840483618186994</v>
+        <v>-0.6941042412960413</v>
       </c>
       <c r="G87" t="n">
-        <v>-1.263213553523032</v>
+        <v>-1.201365514898718</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>13.12663149740848</v>
       </c>
       <c r="E88" t="n">
-        <v>-17.28248398775675</v>
+        <v>-17.28666043236326</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.9640413412867493</v>
+        <v>-0.8826726791254219</v>
       </c>
       <c r="G88" t="n">
-        <v>-1.103147058980089</v>
+        <v>-1.043053388936566</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>12.78302845583742</v>
       </c>
       <c r="E89" t="n">
-        <v>-18.78639681518582</v>
+        <v>-18.75545970357082</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.9767015981346985</v>
+        <v>-0.9052830861330828</v>
       </c>
       <c r="G89" t="n">
-        <v>-1.141847906180231</v>
+        <v>-1.08472618888178</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>12.40527169361126</v>
       </c>
       <c r="E90" t="n">
-        <v>-20.34912026697993</v>
+        <v>-20.31091692728777</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.047151279726027</v>
+        <v>-1.010610662494769</v>
       </c>
       <c r="G90" t="n">
-        <v>-1.069643856008112</v>
+        <v>-1.010833231643078</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>11.98383671195839</v>
       </c>
       <c r="E91" t="n">
-        <v>-21.99276724263874</v>
+        <v>-21.96457951462051</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.159260668959727</v>
+        <v>-1.128821064852714</v>
       </c>
       <c r="G91" t="n">
-        <v>-1.090787925097499</v>
+        <v>-1.000005897192971</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>11.5333171751427</v>
       </c>
       <c r="E92" t="n">
-        <v>-23.64894355211709</v>
+        <v>-23.61279570397108</v>
       </c>
       <c r="F92" t="n">
-        <v>-1.290851404821916</v>
+        <v>-1.275755979645405</v>
       </c>
       <c r="G92" t="n">
-        <v>-1.278400624819434</v>
+        <v>-1.194217117547135</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>11.05633681650367</v>
       </c>
       <c r="E93" t="n">
-        <v>-25.70431726754251</v>
+        <v>-25.66940009586363</v>
       </c>
       <c r="F93" t="n">
-        <v>-1.310162551513461</v>
+        <v>-1.283166223053822</v>
       </c>
       <c r="G93" t="n">
-        <v>-1.517610090040611</v>
+        <v>-1.417087388821838</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>10.54243772203434</v>
       </c>
       <c r="E94" t="n">
-        <v>-27.69268457702397</v>
+        <v>-27.67049312370725</v>
       </c>
       <c r="F94" t="n">
-        <v>-1.315412564952994</v>
+        <v>-1.280757239330945</v>
       </c>
       <c r="G94" t="n">
-        <v>-1.503679879817015</v>
+        <v>-1.37197131322925</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>10.00277430202563</v>
       </c>
       <c r="E95" t="n">
-        <v>-30.00388188997671</v>
+        <v>-30.00545296631772</v>
       </c>
       <c r="F95" t="n">
-        <v>-1.623697019967117</v>
+        <v>-1.60566891895406</v>
       </c>
       <c r="G95" t="n">
-        <v>-1.751412434188155</v>
+        <v>-1.62014900589701</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>9.440369585632249</v>
       </c>
       <c r="E96" t="n">
-        <v>-32.13032062522702</v>
+        <v>-32.13648709986548</v>
       </c>
       <c r="F96" t="n">
-        <v>-1.642837966721721</v>
+        <v>-1.58707784891881</v>
       </c>
       <c r="G96" t="n">
-        <v>-2.040281004087999</v>
+        <v>-1.87182234342351</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>8.855690461536526</v>
       </c>
       <c r="E97" t="n">
-        <v>-34.50999068204199</v>
+        <v>-34.51297572708991</v>
       </c>
       <c r="F97" t="n">
-        <v>-1.774337056464018</v>
+        <v>-1.753114433557579</v>
       </c>
       <c r="G97" t="n">
-        <v>-2.199535775854755</v>
+        <v>-2.024098917775626</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>8.242325441446127</v>
       </c>
       <c r="E98" t="n">
-        <v>-36.60521736731763</v>
+        <v>-36.56156762964331</v>
       </c>
       <c r="F98" t="n">
-        <v>-1.996565804899476</v>
+        <v>-1.96375649397811</v>
       </c>
       <c r="G98" t="n">
-        <v>-2.440682901896507</v>
+        <v>-2.240580145263566</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>7.630307631929943</v>
       </c>
       <c r="E99" t="n">
-        <v>-38.89447198070764</v>
+        <v>-38.88725812184185</v>
       </c>
       <c r="F99" t="n">
-        <v>-2.043226772227388</v>
+        <v>-2.039102696832244</v>
       </c>
       <c r="G99" t="n">
-        <v>-2.694778315448727</v>
+        <v>-2.514287828472691</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>6.99815595732904</v>
       </c>
       <c r="E100" t="n">
-        <v>-41.22467931738657</v>
+        <v>-41.23584705171056</v>
       </c>
       <c r="F100" t="n">
-        <v>-2.445985284547406</v>
+        <v>-2.451955374643234</v>
       </c>
       <c r="G100" t="n">
-        <v>-2.874273787408792</v>
+        <v>-2.691806362703655</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>6.387353936532058</v>
       </c>
       <c r="E101" t="n">
-        <v>-43.57876701444881</v>
+        <v>-43.58248522845586</v>
       </c>
       <c r="F101" t="n">
-        <v>-2.617232605717184</v>
+        <v>-2.628033755561607</v>
       </c>
       <c r="G101" t="n">
-        <v>-3.053782351671698</v>
+        <v>-2.894435933785049</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>5.756097747647013</v>
       </c>
       <c r="E102" t="n">
-        <v>-45.9149575335264</v>
+        <v>-45.93163712734677</v>
       </c>
       <c r="F102" t="n">
-        <v>-2.930662335748106</v>
+        <v>-2.969114429194255</v>
       </c>
       <c r="G102" t="n">
-        <v>-3.396329363222618</v>
+        <v>-3.257066537895178</v>
       </c>
     </row>
   </sheetData>
